--- a/script/税务云-正式环境fapiao/3.应用设置/组织管理-正.xlsx
+++ b/script/税务云-正式环境fapiao/3.应用设置/组织管理-正.xlsx
@@ -559,11 +559,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -593,6 +593,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -601,14 +608,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,7 +682,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -637,7 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -645,23 +698,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -685,29 +722,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -716,21 +730,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,7 +762,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,61 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,55 +918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,37 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -950,17 +950,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -984,7 +1017,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -999,64 +1047,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1065,34 +1065,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1101,101 +1101,101 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1250,9 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1576,8 +1573,8 @@
   <sheetPr/>
   <dimension ref="A1:F131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E127" sqref="E127"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1696,7 +1693,8 @@
         <v>17</v>
       </c>
       <c r="D8" s="1">
-        <v>13143533454</v>
+        <f ca="1">RANDBETWEEN(13500000000,13599999999)</f>
+        <v>13503832628</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="9" t="s">
@@ -3420,7 +3418,7 @@
       </c>
     </row>
     <row r="131" spans="6:6">
-      <c r="F131" s="26"/>
+      <c r="F131" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
